--- a/www.eia.gov/electricity/monthly/xls/table_1_01_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_01_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
-  <si>
-    <t>Table 1.1.A. Net Generation from Renewable Sources:  Total (All Sectors), 2006-October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+  <si>
+    <t>Table 1.1.A. Net Generation from Renewable Sources:  Total (All Sectors), 2006-November 2016</t>
   </si>
   <si>
     <t>(Thousand Megawatthours)</t>
@@ -146,7 +146,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>Wood and Wood-derived fuels include wood/wood waste solids (including paper pellets, railroad ties, utility poles, wood chips, bark, and wood waste solids), wood waste liquids (red liquor, sludge wood, spent sulfite liquor, and other wood-based liquids), and black liquor.
@@ -1094,7 +1094,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3221,286 +3221,330 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="10">
+        <v>19334</v>
+      </c>
+      <c r="C53" s="10">
+        <v>2458</v>
+      </c>
+      <c r="D53" s="10">
+        <v>184</v>
+      </c>
+      <c r="E53" s="10">
+        <v>3257</v>
+      </c>
+      <c r="F53" s="10">
+        <v>927</v>
+      </c>
+      <c r="G53" s="10">
+        <v>600</v>
+      </c>
+      <c r="H53" s="10">
+        <v>250</v>
+      </c>
+      <c r="I53" s="10">
+        <v>1507</v>
+      </c>
+      <c r="J53" s="10">
+        <v>18815</v>
+      </c>
+      <c r="K53" s="10">
+        <v>47331</v>
+      </c>
+      <c r="L53" s="10">
+        <v>1307</v>
+      </c>
+      <c r="M53" s="10">
+        <v>3766</v>
+      </c>
+      <c r="N53" s="10">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B54" s="10">
-        <v>148077</v>
-      </c>
-      <c r="C54" s="10">
-        <v>13081</v>
-      </c>
-      <c r="D54" s="10">
-        <v>2198</v>
-      </c>
-      <c r="E54" s="10">
-        <v>35095</v>
-      </c>
-      <c r="F54" s="10">
-        <v>9510</v>
-      </c>
-      <c r="G54" s="10">
-        <v>6007</v>
-      </c>
-      <c r="H54" s="10">
-        <v>2675</v>
-      </c>
-      <c r="I54" s="10">
-        <v>13139</v>
-      </c>
-      <c r="J54" s="10">
-        <v>218413</v>
-      </c>
-      <c r="K54" s="10">
-        <v>448197</v>
-      </c>
-      <c r="L54" s="10">
-        <v>9675</v>
-      </c>
-      <c r="M54" s="10">
-        <v>22756</v>
-      </c>
-      <c r="N54" s="10">
-        <v>24954</v>
-      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B55" s="10">
-        <v>150938</v>
+        <v>166944</v>
       </c>
       <c r="C55" s="10">
-        <v>18696</v>
+        <v>14313</v>
       </c>
       <c r="D55" s="10">
-        <v>2897</v>
+        <v>2346</v>
       </c>
       <c r="E55" s="10">
-        <v>34923</v>
+        <v>38603</v>
       </c>
       <c r="F55" s="10">
-        <v>9270</v>
+        <v>10330</v>
       </c>
       <c r="G55" s="10">
-        <v>5950</v>
+        <v>6619</v>
       </c>
       <c r="H55" s="10">
-        <v>2613</v>
+        <v>2934</v>
       </c>
       <c r="I55" s="10">
-        <v>13207</v>
+        <v>14502</v>
       </c>
       <c r="J55" s="10">
-        <v>206577</v>
+        <v>237038</v>
       </c>
       <c r="K55" s="10">
-        <v>445071</v>
+        <v>493629</v>
       </c>
       <c r="L55" s="10">
-        <v>12243</v>
+        <v>10467</v>
       </c>
       <c r="M55" s="10">
-        <v>30940</v>
+        <v>24780</v>
       </c>
       <c r="N55" s="10">
-        <v>33837</v>
+        <v>27126</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="10">
+        <v>170620</v>
+      </c>
+      <c r="C56" s="10">
+        <v>20222</v>
+      </c>
+      <c r="D56" s="10">
+        <v>3101</v>
+      </c>
+      <c r="E56" s="10">
+        <v>38341</v>
+      </c>
+      <c r="F56" s="10">
+        <v>10262</v>
+      </c>
+      <c r="G56" s="10">
+        <v>6569</v>
+      </c>
+      <c r="H56" s="10">
+        <v>2902</v>
+      </c>
+      <c r="I56" s="10">
+        <v>14541</v>
+      </c>
+      <c r="J56" s="10">
+        <v>225915</v>
+      </c>
+      <c r="K56" s="10">
+        <v>492474</v>
+      </c>
+      <c r="L56" s="10">
+        <v>13225</v>
+      </c>
+      <c r="M56" s="10">
+        <v>33447</v>
+      </c>
+      <c r="N56" s="10">
+        <v>36548</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>2016</v>
       </c>
-      <c r="B56" s="10">
-        <v>184119</v>
-      </c>
-      <c r="C56" s="10">
-        <v>28081</v>
-      </c>
-      <c r="D56" s="10">
-        <v>3109</v>
-      </c>
-      <c r="E56" s="10">
-        <v>33585</v>
-      </c>
-      <c r="F56" s="10">
-        <v>9624</v>
-      </c>
-      <c r="G56" s="10">
-        <v>6124</v>
-      </c>
-      <c r="H56" s="10">
-        <v>2616</v>
-      </c>
-      <c r="I56" s="10">
-        <v>14290</v>
-      </c>
-      <c r="J56" s="10">
-        <v>224406</v>
-      </c>
-      <c r="K56" s="10">
-        <v>505953</v>
-      </c>
-      <c r="L56" s="10">
-        <v>16974</v>
-      </c>
-      <c r="M56" s="10">
-        <v>45055</v>
-      </c>
-      <c r="N56" s="10">
-        <v>48164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="B57" s="10">
+        <v>203453</v>
+      </c>
+      <c r="C57" s="10">
+        <v>30539</v>
+      </c>
+      <c r="D57" s="10">
+        <v>3293</v>
+      </c>
+      <c r="E57" s="10">
+        <v>36842</v>
+      </c>
+      <c r="F57" s="10">
+        <v>10551</v>
+      </c>
+      <c r="G57" s="10">
+        <v>6724</v>
+      </c>
+      <c r="H57" s="10">
+        <v>2866</v>
+      </c>
+      <c r="I57" s="10">
+        <v>15797</v>
+      </c>
+      <c r="J57" s="10">
+        <v>243220</v>
+      </c>
+      <c r="K57" s="10">
+        <v>553284</v>
+      </c>
+      <c r="L57" s="10">
+        <v>18281</v>
+      </c>
+      <c r="M57" s="10">
+        <v>48820</v>
+      </c>
+      <c r="N57" s="10">
+        <v>52113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B58" s="10">
-        <v>184517</v>
-      </c>
-      <c r="C58" s="10">
-        <v>20865</v>
-      </c>
-      <c r="D58" s="10">
-        <v>3140</v>
-      </c>
-      <c r="E58" s="10">
-        <v>42168</v>
-      </c>
-      <c r="F58" s="10">
-        <v>10980</v>
-      </c>
-      <c r="G58" s="10">
-        <v>7171</v>
-      </c>
-      <c r="H58" s="10">
-        <v>3139</v>
-      </c>
-      <c r="I58" s="10">
-        <v>15944</v>
-      </c>
-      <c r="J58" s="10">
-        <v>247530</v>
-      </c>
-      <c r="K58" s="10">
-        <v>535454</v>
-      </c>
-      <c r="L58" s="10">
-        <v>13801</v>
-      </c>
-      <c r="M58" s="10">
-        <v>34666</v>
-      </c>
-      <c r="N58" s="10">
-        <v>37806</v>
-      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="10">
+        <v>185331</v>
+      </c>
+      <c r="C59" s="10">
+        <v>21158</v>
+      </c>
+      <c r="D59" s="10">
+        <v>3197</v>
+      </c>
+      <c r="E59" s="10">
+        <v>42078</v>
+      </c>
+      <c r="F59" s="10">
+        <v>11152</v>
+      </c>
+      <c r="G59" s="10">
+        <v>7179</v>
+      </c>
+      <c r="H59" s="10">
+        <v>3170</v>
+      </c>
+      <c r="I59" s="10">
+        <v>15916</v>
+      </c>
+      <c r="J59" s="10">
+        <v>248243</v>
+      </c>
+      <c r="K59" s="10">
+        <v>537424</v>
+      </c>
+      <c r="L59" s="10">
+        <v>13991</v>
+      </c>
+      <c r="M59" s="10">
+        <v>35150</v>
+      </c>
+      <c r="N59" s="10">
+        <v>38346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>2016</v>
       </c>
-      <c r="B59" s="10">
-        <v>223899</v>
-      </c>
-      <c r="C59" s="10">
-        <v>31051</v>
-      </c>
-      <c r="D59" s="10">
-        <v>3439</v>
-      </c>
-      <c r="E59" s="10">
-        <v>40590</v>
-      </c>
-      <c r="F59" s="10">
-        <v>11645</v>
-      </c>
-      <c r="G59" s="10">
-        <v>7385</v>
-      </c>
-      <c r="H59" s="10">
-        <v>3205</v>
-      </c>
-      <c r="I59" s="10">
-        <v>17001</v>
-      </c>
-      <c r="J59" s="10">
-        <v>266909</v>
-      </c>
-      <c r="K59" s="10">
-        <v>605124</v>
-      </c>
-      <c r="L59" s="10">
-        <v>18870</v>
-      </c>
-      <c r="M59" s="10">
-        <v>49920</v>
-      </c>
-      <c r="N59" s="10">
-        <v>53359</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="168.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="B60" s="10">
+        <v>223552</v>
+      </c>
+      <c r="C60" s="10">
+        <v>31983</v>
+      </c>
+      <c r="D60" s="10">
+        <v>3419</v>
+      </c>
+      <c r="E60" s="10">
+        <v>40429</v>
+      </c>
+      <c r="F60" s="10">
+        <v>11579</v>
+      </c>
+      <c r="G60" s="10">
+        <v>7366</v>
+      </c>
+      <c r="H60" s="10">
+        <v>3164</v>
+      </c>
+      <c r="I60" s="10">
+        <v>17174</v>
+      </c>
+      <c r="J60" s="10">
+        <v>266386</v>
+      </c>
+      <c r="K60" s="10">
+        <v>605052</v>
+      </c>
+      <c r="L60" s="10">
+        <v>19195</v>
+      </c>
+      <c r="M60" s="10">
+        <v>51179</v>
+      </c>
+      <c r="N60" s="10">
+        <v>54597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="168.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A29:N29"/>
     <mergeCell ref="A42:N42"/>
-    <mergeCell ref="A53:N53"/>
-    <mergeCell ref="A57:N57"/>
-    <mergeCell ref="A60:N60"/>
+    <mergeCell ref="A54:N54"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="A61:N61"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="B3:K3"/>
